--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_24_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_24_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119307.8692918006</v>
+        <v>21314963.4103713</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119307.8692918006</v>
+        <v>21314963.4103713</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>79538.99203564849</v>
+        <v>9992908.539504113</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>79538.99203564849</v>
+        <v>9992908.539504113</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1608278191.597146</v>
+        <v>54480466.25241584</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12477.9038282427</v>
+        <v>1215118.566729298</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24402.39200704451</v>
+        <v>2364555.048770525</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36443.10276398546</v>
+        <v>3513991.53081175</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50567.90201239067</v>
+        <v>4354586.373359759</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>62663.35299915024</v>
+        <v>5525844.442448053</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>74696.90613250609</v>
+        <v>6680131.209705805</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>86663.68428416907</v>
+        <v>7834417.976963555</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>98624.16054521994</v>
+        <v>8988704.744221302</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>112278.2935547739</v>
+        <v>9885166.443467755</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>124308.2814638785</v>
+        <v>11064682.12383585</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>136217.3437237479</v>
+        <v>12229650.91280076</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>148093.7634055261</v>
+        <v>13394619.70176568</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>159975.6432649555</v>
+        <v>14559588.4907306</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>173461.3956462526</v>
+        <v>15484909.74553141</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>193820.785648167</v>
+        <v>15756379.81432281</v>
       </c>
     </row>
   </sheetData>
